--- a/GenerateYearlyReportPerformer/Data/Temp/Yearly-Report-2020-FR121212.xlsx
+++ b/GenerateYearlyReportPerformer/Data/Temp/Yearly-Report-2020-FR121212.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -37,208 +37,226 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>460189</x:t>
+    <x:t>374413</x:t>
   </x:si>
   <x:si>
     <x:t>Waste management services</x:t>
   </x:si>
   <x:si>
-    <x:t>205134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41026.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>246161</x:t>
+    <x:t>159674</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31934.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191609</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>524867</x:t>
+  </x:si>
+  <x:si>
+    <x:t>247546</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49509.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>297055</x:t>
   </x:si>
   <x:si>
     <x:t>EUR</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-01-19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>756125</x:t>
+    <x:t>2017-03-12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244663</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Professional Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32752</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6550.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39302.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>677813</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25806.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154837</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>433521</x:t>
   </x:si>
   <x:si>
     <x:t>Various paper supplies</x:t>
   </x:si>
   <x:si>
-    <x:t>209054</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41810.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>250865</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>209694</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Professional Services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>291875</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58375</x:t>
-  </x:si>
-  <x:si>
-    <x:t>350250</x:t>
+    <x:t>2525</x:t>
+  </x:si>
+  <x:si>
+    <x:t>505</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>635125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>196347</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39269.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>235616</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226088</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beverages and Catering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64765</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12953</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77718</x:t>
   </x:si>
   <x:si>
     <x:t>USD</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-04-05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>187098</x:t>
-  </x:si>
-  <x:si>
-    <x:t>236472</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47294.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>283766</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-04-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>926520</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2924</x:t>
-  </x:si>
-  <x:si>
-    <x:t>584.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3508.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>570167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28070.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>168422</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>452154</x:t>
+    <x:t>2017-07-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>980561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>258904</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51780.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>310685</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>843478</x:t>
+  </x:si>
+  <x:si>
+    <x:t>297466</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59493.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>356959</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>872449</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186948</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37389.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>224338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>919022</x:t>
   </x:si>
   <x:si>
     <x:t>IT Support</x:t>
   </x:si>
   <x:si>
-    <x:t>281245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56249</x:t>
-  </x:si>
-  <x:si>
-    <x:t>337494</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>383960</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48990</x:t>
-  </x:si>
-  <x:si>
-    <x:t>293940</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119918</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60725</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12145</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72870</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-10-08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>116780</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129564</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25912.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>155477</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>670182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38680</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7736</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46416</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>426072</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beverages and Catering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>167040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33408</x:t>
-  </x:si>
-  <x:si>
-    <x:t>200448</x:t>
+    <x:t>18845</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3769</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22614</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>172823</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12830.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76984.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>951406</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171547</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34309.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>205856</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-21</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -589,7 +607,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G13"/>
+  <x:dimension ref="A1:G14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -646,76 +664,76 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
+      <x:c r="E3" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
+      <x:c r="F3" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="G3" s="0" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="E4" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
+      <x:c r="F4" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="F5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>33</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>8</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>34</x:v>
@@ -727,7 +745,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
         <x:v>37</x:v>
@@ -738,7 +756,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>39</x:v>
@@ -750,7 +768,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>42</x:v>
@@ -773,76 +791,76 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
         <x:v>64</x:v>
@@ -853,30 +871,30 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>72</x:v>
@@ -888,10 +906,33 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="A14" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
